--- a/similarities/split_global/harmonic_similarity_timestamps_227.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_227.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,558 +484,598 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_213</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['A:min', 'E:7/G#', 'A:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:min/F#', 'F#:7', 'B:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000')]</t>
+          <t>('0:00:42.940000', '0:00:51.080000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:01:21.100000', '0:01:27.580000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-213#t=42.94</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=81.1</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_89</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj/B', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:02.300000', '0:00:07.040000')]</t>
+          <t>('0:00:18.800000', '0:00:21.340000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:27.660000', '0:01:36.720000')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-178#t=2.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=18.8</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=87.66']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>schubert-winterreise_60</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C#:maj/G#', 'G#:7', 'C#:maj']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:37.840000', '0:00:42.820000')]</t>
+          <t>('0:00:47.580000', '0:00:50.040000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:29.500000', '0:00:31.640000')]</t>
+          <t>('0:00:17.040000', '0:00:24.520000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=37.84']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=47.58</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-165#t=29.5']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-60#t=17.04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:38.860000', '0:00:42.240000'), ('0:01:02', '0:01:07.100000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000'), ('0:01:40.900000', '0:01:56.600000')]</t>
+          <t>('0:00:44.200000', '0:00:59.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=38.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=62.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=100.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=44.2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_2</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G', 'C', 'G']]</t>
+          <t>['F:maj', 'C:7/A#', 'F:maj/A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:03:37.493000', '0:03:43.713000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:21.213174', '0:00:28.074671')]</t>
+          <t>('0:01:14.900000', '0:01:26.120000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=21.213174']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=74.9</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_208</t>
+          <t>schubert-winterreise_214</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:58.920000', '0:01:06.100000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:02:49.152131', '0:02:57.917664')]</t>
+          <t>('0:00:09.200000', '0:00:20.100000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=58.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-208#t=169.152131']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-214#t=9.2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>isophonics_4</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
+          <t>['C:min', 'F:min', 'C:min/5']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.660000')]</t>
+          <t>('0:00:25.480000', '0:00:32.580000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
+          <t>('0:01:24.323000', '0:01:27.713000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-0#t=25.48</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>isophonics_213</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_123</t>
+          <t>jaah_80</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['E', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7/F', 'F:min']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
+          <t>('0:00:16.192174', '0:00:27.488682')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:14.920000', '0:00:20.760000')]</t>
+          <t>('0:00:01.640000', '0:00:05.110000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-213#t=16.192174</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-123#t=14.92']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-80#t=1.64</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:min', 'A#:7', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#']]</t>
+          <t>['A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:min', 'D:min/A'], ['D:min', 'A:7/E', 'D:min'], ['D:maj/A', 'A:7', 'D:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:36.180000', '0:00:37.980000'), ('0:00:09.100000', '0:00:13.860000'), ('0:00:35.880000', '0:00:37.420000')]</t>
+          <t>('0:01:23.100000', '0:01:30.020000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:25.140000', '0:00:42.540000'), ('0:00:01.440000', '0:00:06.840000'), ('0:00:49.080000', '0:00:57.840000')]</t>
+          <t>('0:00:23.040000', '0:00:28.920000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=36.18', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=35.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=83.1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=25.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=1.44', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=49.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=23.04</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_76</t>
+          <t>schubert-winterreise_157</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_71</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C#:min', 'F#:7', 'B:7']]</t>
+          <t>['F:maj', 'F:maj/A', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7', 'Bb:7']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:01:05.960000', '0:01:09.920000')]</t>
+          <t>('0:00:17.940000', '0:00:20.700000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:37.390000', '0:01:40.090000')]</t>
+          <t>('0:04:13', '0:04:20.200000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-76#t=65.96']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=17.94</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-71#t=97.39']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=253.0</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_54</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
+          <t>['Bb:min7', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'A:7', 'D:min']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:02:27.580000', '0:03:02.300000')]</t>
+          <t>('0:00:23.575000', '0:00:34.995000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:38.120000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-54#t=147.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=23.575</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>schubert-winterreise_71</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj/C', 'C:7', 'F:maj'], ['F:maj', 'D:min/A', 'A:7', 'D:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:7/F', 'D#/G', 'A#:7', 'D#'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:maj/C', 'C:7', 'F:min/C']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:32.040000', '0:01:44.400000'), ('0:01:40.900000', '0:01:56.600000')]</t>
+          <t>('0:00:56.440000', '0:01:06.340000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:46.960000', '0:00:50.740000'), ('0:01:12.680000', '0:01:18.700000')]</t>
+          <t>('0:00:36.520000', '0:00:38.280000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=100.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-71#t=56.44</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.96', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=72.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=36.52</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1043,147 +1083,155 @@
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_34</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:10.540000')]</t>
+          <t>('0:00:21.940000', '0:00:27.520000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:08.740000', '0:00:24.260000')]</t>
+          <t>('0:00:42.440000', '0:00:44.360000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-10#t=0.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=21.94</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=8.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=42.44</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>isophonics_5</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.600000')]</t>
+          <t>('0:00:09.162102', '0:00:14.073123')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-47#t=0.36']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-5#t=9.162102</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_70</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_4</t>
+          <t>isophonics_132</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/G']]</t>
+          <t>['D:min', 'G:sus4', 'G', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:min', 'C:min/5']]</t>
+          <t>['C#:min', 'F#:sus4', 'F#', 'B']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:09.600000', '0:00:13.300000')]</t>
+          <t>('0:00:17.431000', '0:00:21.711000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:24.323000', '0:01:27.713000')]</t>
+          <t>('0:00:32.897437', '0:00:40.281383')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-70#t=17.431</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-4#t=84.323']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-132#t=32.897437</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
